--- a/resources/script/mapping/sampleMapping/SampleMappings_11.xlsx
+++ b/resources/script/mapping/sampleMapping/SampleMappings_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ck/work/git/cumulocity-dynamic-mapper/resources/script/mapping/sampleMapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D5442-C9F6-5146-AF4E-F211A80AC13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607789B0-DBE7-8B4A-B73D-0B7AA30EBD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="31500" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
+    <workbookView xWindow="18600" yWindow="32760" windowWidth="34560" windowHeight="21580" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1086,7 +1086,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1439,20 +1438,19 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="18.83203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="18.83203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="51.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="14"/>
+    <col min="4" max="4" width="10.83203125" style="13"/>
     <col min="5" max="5" width="46" style="1" customWidth="1"/>
     <col min="6" max="6" width="44" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="8"/>
+    <col min="7" max="7" width="24.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -1462,33 +1460,33 @@
       <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="182" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1502,16 +1500,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="384" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1525,16 +1523,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="182" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1548,16 +1546,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="154" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1571,16 +1569,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="182" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1594,16 +1592,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="196" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1617,16 +1615,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1640,16 +1638,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="154" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1663,16 +1661,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="196" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1686,16 +1684,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="126" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1709,16 +1707,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="112" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1732,16 +1730,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="140" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>15</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1755,16 +1753,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="98" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>17</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1778,16 +1776,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="266" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>18</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1801,16 +1799,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="332" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>19</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1824,16 +1822,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="182" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1847,16 +1845,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="112" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>21</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1870,16 +1868,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="210" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>23</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1893,16 +1891,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>24</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1916,16 +1914,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="252" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>25</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1939,16 +1937,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="168" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>26</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1962,16 +1960,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="196" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>27</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1985,16 +1983,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="224" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>51</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2008,16 +2006,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="196" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>52</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2031,16 +2029,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="210" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2054,7 +2052,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="17"/>
+      <c r="F29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>

--- a/resources/script/mapping/sampleMapping/SampleMappings_11.xlsx
+++ b/resources/script/mapping/sampleMapping/SampleMappings_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ck/work/git/cumulocity-dynamic-mapper/resources/script/mapping/sampleMapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607789B0-DBE7-8B4A-B73D-0B7AA30EBD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CC3628-3B69-744E-A584-9A2C0BC8CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18600" yWindow="32760" windowWidth="34560" windowHeight="21580" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
   </bookViews>
@@ -702,12 +702,6 @@
 }</t>
   </si>
   <si>
-    <t>Hex Code: 0x41b1</t>
-  </si>
-  <si>
-    <t>Hex Code: 0x5a75</t>
-  </si>
-  <si>
     <t>{
   "id" : "909090",
   "type": "type_any"
@@ -995,6 +989,15 @@
 1.	[ bus_id-&gt;source.id ]
 2.	[ msg_type-&gt;type ]
 3.	[ tx-&gt;text ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex Code: 0x41b1
+No leading 0x, only the plain payload as hexadecimal numbers
+</t>
+  </si>
+  <si>
+    <t>Hex Code: 0x5a75
+No leading 0x, only the plain payload as hexadecimal numbers</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1441,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1484,7 +1487,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>7</v>
@@ -1507,7 +1510,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -1530,7 +1533,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
@@ -1553,7 +1556,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
@@ -1576,7 +1579,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>7</v>
@@ -1599,7 +1602,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>5</v>
@@ -1622,7 +1625,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>7</v>
@@ -1634,7 +1637,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="154" x14ac:dyDescent="0.2">
@@ -1645,7 +1648,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
@@ -1668,7 +1671,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>7</v>
@@ -1691,13 +1694,13 @@
         <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>89</v>
@@ -1714,7 +1717,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>11</v>
@@ -1737,13 +1740,13 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>57</v>
@@ -1760,7 +1763,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>5</v>
@@ -1769,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>21</v>
@@ -1783,7 +1786,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>7</v>
@@ -1806,7 +1809,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>6</v>
@@ -1829,7 +1832,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>27</v>
@@ -1852,7 +1855,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>6</v>
@@ -1875,7 +1878,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>7</v>
@@ -1898,7 +1901,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>9</v>
@@ -1921,7 +1924,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>7</v>
@@ -1944,7 +1947,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>7</v>
@@ -1956,7 +1959,7 @@
         <v>74</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="196" x14ac:dyDescent="0.2">
@@ -1967,7 +1970,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>7</v>
@@ -1979,7 +1982,7 @@
         <v>74</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="224" x14ac:dyDescent="0.2">
@@ -1990,7 +1993,7 @@
         <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>6</v>
@@ -2013,7 +2016,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>11</v>
@@ -2036,7 +2039,7 @@
         <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>6</v>

--- a/resources/script/mapping/sampleMapping/SampleMappings_11.xlsx
+++ b/resources/script/mapping/sampleMapping/SampleMappings_11.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ck/work/git/cumulocity-dynamic-mapper/resources/script/mapping/sampleMapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CC3628-3B69-744E-A584-9A2C0BC8CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DDD3B-A47C-4841-98EE-713D872744CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="32760" windowWidth="34560" windowHeight="21580" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
+    <workbookView xWindow="15580" yWindow="-28280" windowWidth="25560" windowHeight="28260" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>Sample Mapping #</t>
   </si>
@@ -998,6 +998,52 @@
   <si>
     <t>Hex Code: 0x5a75
 No leading 0x, only the plain payload as hexadecimal numbers</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>{
+    "onguardMeasurement": null,
+    "time": "2022-08-05T00:14:49.389+02:00",
+    "source": {
+      "id": "909090"
+    },
+    "type": "onguardMeasurement"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "ID": "0018",
+    "meas": {
+        "Product1_Flow": [
+          14.93
+        ],
+        "Water_Flow": [
+          18.54
+        ],
+        "Product2_Flow": [
+          272.9
+        ],
+    },
+    "ts": "2024-06-18 13:20:45.000Z",
+    "timestampUTC": "2024-06-18T13:20:45.000Z",
+}</t>
+  </si>
+  <si>
+    <t>Map the structure under meas as fragments in the measurements. The number of keys in meas can vary and must therefore be generated dynamically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subscriptionTopic:  datalogger/0018
+mappingTopic:       datalogger/0018
+mappingTopicSample: datalogger/0018
+1.  [ * ID —&gt; source.id ]
+2.  [ $replace(ts,' ','T') —&gt; time ]
+3.  [ $map($spread(meas), function($v, $k) { { $keys($v): { "value": $lookup($v,$keys($v))[0], "unit": "l/h" } } })~&gt;$merge() —&gt; onguardMeasurement ]
+</t>
   </si>
 </sst>
 </file>
@@ -1439,10 +1485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1963,8 +2009,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="196" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>27</v>
+      <c r="A23" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>53</v>
@@ -1986,76 +2032,99 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="224" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>51</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="196" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>52</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="210" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>88</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="196" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>52</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="210" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="16"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
